--- a/상권분석데이터.xlsx
+++ b/상권분석데이터.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanyoungwook/2023-1/2023_ds_B/ds_subway_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA4C402-1C85-0144-9CE2-F89A60C8749B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0D1209-B9AE-CF45-888F-94A43D0CBA4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{9AD44E08-8F46-6D40-AF66-8F6A79D42CB5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>역 이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,10 +126,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>동대문역사문화공원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>신당</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -138,10 +134,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>왕십리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>한양대</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -158,30 +150,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>구의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강변</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>잠실나루</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>잠실</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>충정로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>야현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이대</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -214,10 +186,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>대림</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>구로디지털단지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -234,14 +202,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>서울대 입구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>낙성대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>사당</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -254,10 +214,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>교대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>강남</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -270,15 +226,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>삼성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>종합운동장</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>잠실새내</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울대입구(관악구청)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낙성대(강감찬)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교대(법원.검찰청)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼성(무역센터)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잠실(송파구청)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강변(동서울터미널)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구의(광진구청)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왕십리(성동구청)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동대문역사문화공원(DDP)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충정로(경기대입구)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대림(구로구청)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주거인원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -286,7 +290,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <numFmts count="1">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -301,6 +308,21 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF505052"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -320,17 +342,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -643,13 +675,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62F582E7-C625-CC4B-9A7E-1081F688F636}">
-  <dimension ref="A1:R44"/>
+  <dimension ref="A1:S44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A17" sqref="A17:XFD17"/>
+      <selection pane="bottomRight" activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -657,7 +689,7 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -712,8 +744,11 @@
       <c r="R1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -768,8 +803,11 @@
       <c r="R2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="S2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -824,8 +862,11 @@
       <c r="R3">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="S3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -880,8 +921,11 @@
       <c r="R4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="S4">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -936,10 +980,13 @@
       <c r="R5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="S5">
+        <v>4876</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="B6">
         <v>464</v>
@@ -992,10 +1039,13 @@
       <c r="R6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="S6">
+        <v>5072</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7">
         <v>60</v>
@@ -1048,10 +1098,13 @@
       <c r="R7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="S7">
+        <v>16083</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8">
         <v>13</v>
@@ -1104,10 +1157,13 @@
       <c r="R8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="S8">
+        <v>27498</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="B9">
         <v>46</v>
@@ -1160,10 +1216,13 @@
       <c r="R9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="S9">
+        <v>14719</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -1216,10 +1275,13 @@
       <c r="R10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="S10">
+        <v>5369</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B11">
         <v>38</v>
@@ -1272,10 +1334,13 @@
       <c r="R11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="S11">
+        <v>15295</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B12">
         <v>40</v>
@@ -1328,10 +1393,13 @@
       <c r="R12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="S12">
+        <v>9701</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B13">
         <v>86</v>
@@ -1384,10 +1452,13 @@
       <c r="R13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="S13">
+        <v>18078</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="B14">
         <v>16</v>
@@ -1440,10 +1511,13 @@
       <c r="R14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="S14">
+        <v>21606</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="B15">
         <v>46</v>
@@ -1496,10 +1570,13 @@
       <c r="R15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:18">
+      <c r="S15">
+        <v>17179</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B16">
         <v>11</v>
@@ -1552,10 +1629,13 @@
       <c r="R16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:18">
+      <c r="S16">
+        <v>20336</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="B17">
         <v>13</v>
@@ -1608,10 +1688,13 @@
       <c r="R17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:18">
+      <c r="S17" s="1">
+        <v>18539</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="B18">
         <v>14</v>
@@ -1664,10 +1747,13 @@
       <c r="R18">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:18">
+      <c r="S18" s="2">
+        <v>21204</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>54</v>
@@ -1720,10 +1806,13 @@
       <c r="R19">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:18">
+      <c r="S19" s="1">
+        <v>25988</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B20">
         <v>77</v>
@@ -1776,10 +1865,13 @@
       <c r="R20">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:18">
+      <c r="S20" s="1">
+        <v>10537</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B21">
         <v>146</v>
@@ -1832,10 +1924,13 @@
       <c r="R21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:18">
+      <c r="S21" s="1">
+        <v>7868</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B22">
         <v>44</v>
@@ -1888,10 +1983,13 @@
       <c r="R22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:18">
+      <c r="S22" s="1">
+        <v>15849</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -1944,10 +2042,13 @@
       <c r="R23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:18">
+      <c r="S23" s="1">
+        <v>14891</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B24">
         <v>17</v>
@@ -2000,10 +2101,13 @@
       <c r="R24">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:18">
+      <c r="S24" s="1">
+        <v>20443</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B25">
         <v>20</v>
@@ -2056,10 +2160,13 @@
       <c r="R25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:18">
+      <c r="S25" s="1">
+        <v>17624</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B26">
         <v>81</v>
@@ -2112,10 +2219,13 @@
       <c r="R26">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:18">
+      <c r="S26" s="2">
+        <v>19879</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -2168,10 +2278,13 @@
       <c r="R27">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:18">
+      <c r="S27" s="1">
+        <v>18717</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B28">
         <v>32</v>
@@ -2224,10 +2337,13 @@
       <c r="R28">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:18">
+      <c r="S28" s="2">
+        <v>15525</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B29">
         <v>20</v>
@@ -2280,10 +2396,13 @@
       <c r="R29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:18">
+      <c r="S29" s="1">
+        <v>22222</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B30">
         <v>75</v>
@@ -2336,10 +2455,13 @@
       <c r="R30">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:18">
+      <c r="S30" s="1">
+        <v>30332</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B31">
         <v>22</v>
@@ -2392,8 +2514,11 @@
       <c r="R31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:18">
+      <c r="S31" s="1">
+        <v>24247</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32" t="s">
         <v>49</v>
       </c>
@@ -2448,8 +2573,11 @@
       <c r="R32">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:18">
+      <c r="S32" s="1">
+        <v>30097</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -2504,10 +2632,13 @@
       <c r="R33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:18">
+      <c r="S33" s="1">
+        <v>20122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B34">
         <v>15</v>
@@ -2560,10 +2691,13 @@
       <c r="R34">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:18">
+      <c r="S34" s="1">
+        <v>16041</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
       <c r="A35" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>13</v>
@@ -2616,10 +2750,13 @@
       <c r="R35">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:18">
+      <c r="S35" s="1">
+        <v>14760</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
       <c r="A36" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B36">
         <v>12</v>
@@ -2672,10 +2809,13 @@
       <c r="R36">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:18">
+      <c r="S36" s="1">
+        <v>7584</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B37">
         <v>22</v>
@@ -2728,10 +2868,13 @@
       <c r="R37">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="1:18">
+      <c r="S37" s="1">
+        <v>12556</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B38">
         <v>102</v>
@@ -2784,10 +2927,13 @@
       <c r="R38">
         <v>17</v>
       </c>
-    </row>
-    <row r="39" spans="1:18">
+      <c r="S38" s="2">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
       <c r="A39" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B39">
         <v>30</v>
@@ -2840,10 +2986,13 @@
       <c r="R39">
         <v>5</v>
       </c>
-    </row>
-    <row r="40" spans="1:18">
+      <c r="S39" s="1">
+        <v>9406</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B40">
         <v>33</v>
@@ -2896,10 +3045,13 @@
       <c r="R40">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="1:18">
+      <c r="S40" s="2">
+        <v>16109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19">
       <c r="A41" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B41">
         <v>86</v>
@@ -2952,10 +3104,13 @@
       <c r="R41">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:18">
+      <c r="S41" s="1">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19">
       <c r="A42" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>13</v>
@@ -3008,10 +3163,13 @@
       <c r="R42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:18">
+      <c r="S42" s="1">
+        <v>5018</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19">
       <c r="A43" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B43">
         <v>56</v>
@@ -3064,10 +3222,13 @@
       <c r="R43">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="1:18">
+      <c r="S43" s="1">
+        <v>35301</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19">
       <c r="A44" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="B44">
         <v>212</v>
@@ -3119,6 +3280,9 @@
       </c>
       <c r="R44">
         <v>3</v>
+      </c>
+      <c r="S44" s="1">
+        <v>9894</v>
       </c>
     </row>
   </sheetData>
